--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/13 REVISION AJUSTES CONTABLES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/13 REVISION AJUSTES CONTABLES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39142D9-5801-43A7-A3F2-8157A82B5750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B10F37-F9C1-47B8-BF32-79CB933CD036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,21 +135,12 @@
     <t>Cumple con el principio de prudencia.</t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
     <t>Elaboro:</t>
   </si>
   <si>
-    <t xml:space="preserve">  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>Reviso:</t>
   </si>
   <si>
@@ -201,17 +192,26 @@
     <t>Evaluación de Impacto Financiero</t>
   </si>
   <si>
-    <t xml:space="preserve">            REVISIÓN DE AJUSTES CONTABLES SIGNIFICATIVOS</t>
-  </si>
-  <si>
     <t>A-13</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>REVISIÓN DE AJUSTES CONTABLES SIGNIFICATIVOS</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +251,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -450,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,30 +456,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,33 +480,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1096,7 @@
   <dimension ref="B4:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,96 +1113,103 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N4" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="11"/>
+      <c r="M8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="M9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="11"/>
+      <c r="G9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="M9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="G10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G12" s="26" t="s">
         <v>58</v>
       </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1314,121 +1307,127 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="I20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="I21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="I22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="I23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="13" t="s">
+    </row>
+    <row r="27" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="I20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="I21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="I23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="29" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="G35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="G35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
